--- a/app/static/uploads/CDRL_Item.xlsx
+++ b/app/static/uploads/CDRL_Item.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dp/Desktop/bapco/webtools settings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dp/py3/webtools/app/static/settings_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
